--- a/trunk/Docs/PDSP_Documents - PJ.xlsx
+++ b/trunk/Docs/PDSP_Documents - PJ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -1320,95 +1320,95 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="36" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,25 +1719,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -1749,9 +1749,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
       <c r="G7" t="s">
         <v>14</v>
       </c>
@@ -2849,13 +2849,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" customHeight="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="34"/>
       <c r="G1" s="35"/>
       <c r="H1" s="34"/>
@@ -3400,26 +3400,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:11" ht="15.75">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
       <c r="K3" s="78"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="76"/>
       <c r="H6" t="s">
         <v>2</v>
@@ -3432,9 +3432,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="76"/>
       <c r="H7" t="s">
         <v>14</v>
@@ -3453,29 +3453,29 @@
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B10" s="116" t="s">
+      <c r="B10" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="112" t="s">
+      <c r="D10" s="121"/>
+      <c r="E10" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="112" t="s">
+      <c r="F10" s="125"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11" ht="47.25" customHeight="1" thickBot="1">
-      <c r="B11" s="117"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="123"/>
       <c r="E11" s="2" t="s">
         <v>87</v>
       </c>
@@ -3485,152 +3485,155 @@
       <c r="G11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="114"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
       <c r="K11" s="8"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
       <c r="B12" s="3"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="111"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="77"/>
       <c r="F12" s="77"/>
       <c r="G12" s="77"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
       <c r="B13" s="3"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="77"/>
       <c r="F13" s="77"/>
       <c r="G13" s="77"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
       <c r="B14" s="3"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="77"/>
       <c r="F14" s="77"/>
       <c r="G14" s="77"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
       <c r="B15" s="3"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="77"/>
       <c r="F15" s="77"/>
       <c r="G15" s="77"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
       <c r="B16" s="3"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="111"/>
+      <c r="C16" s="114"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="77"/>
       <c r="F16" s="77"/>
       <c r="G16" s="77"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
       <c r="K16" s="8"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
       <c r="B17" s="3"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="111"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="77"/>
       <c r="F17" s="77"/>
       <c r="G17" s="77"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="111"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
       <c r="K17" s="8"/>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
       <c r="B18" s="3"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="111"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="77"/>
       <c r="F18" s="77"/>
       <c r="G18" s="77"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
       <c r="B19" s="3"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="111"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="77"/>
       <c r="F19" s="77"/>
       <c r="G19" s="77"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
       <c r="B20" s="3"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="111"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="116"/>
       <c r="E20" s="77"/>
       <c r="F20" s="77"/>
       <c r="G20" s="77"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
       <c r="B21" s="3"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="111"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="116"/>
       <c r="E21" s="77"/>
       <c r="F21" s="77"/>
       <c r="G21" s="77"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="8"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
       <c r="B22" s="3"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="111"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="116"/>
       <c r="E22" s="77"/>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="H10:J11"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
@@ -3643,16 +3646,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="H10:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3677,42 +3677,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="15.75">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="123"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
     </row>
     <row r="7" spans="2:9" ht="15" customHeight="1">
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="130"/>
       <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
     </row>
     <row r="9" spans="2:9" ht="13.5" thickBot="1"/>
     <row r="10" spans="2:9" ht="13.5" thickBot="1">
@@ -4596,7 +4596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17:J17"/>
     </sheetView>
   </sheetViews>
@@ -4609,27 +4609,27 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="15.75">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="6" spans="2:10">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -4643,11 +4643,11 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="111" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
       <c r="G7" t="s">
         <v>4</v>
       </c>
@@ -4679,15 +4679,15 @@
       <c r="E10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="112" t="s">
+      <c r="F10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="114"/>
-      <c r="H10" s="112" t="s">
+      <c r="G10" s="126"/>
+      <c r="H10" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" thickBot="1">
       <c r="B11" s="102">
@@ -4702,15 +4702,15 @@
       <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="111"/>
-      <c r="H11" s="109" t="s">
+      <c r="G11" s="116"/>
+      <c r="H11" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="116"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" thickBot="1">
       <c r="B12" s="102">
@@ -4725,15 +4725,15 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G12" s="111"/>
-      <c r="H12" s="109" t="s">
+      <c r="G12" s="116"/>
+      <c r="H12" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" thickBot="1">
       <c r="B13" s="102">
@@ -4748,15 +4748,15 @@
       <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="111"/>
-      <c r="H13" s="109" t="s">
+      <c r="G13" s="116"/>
+      <c r="H13" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1">
       <c r="B14" s="102">
@@ -4771,15 +4771,15 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G14" s="111"/>
-      <c r="H14" s="109" t="s">
+      <c r="G14" s="116"/>
+      <c r="H14" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="111"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" thickBot="1">
       <c r="B15" s="102">
@@ -4794,101 +4794,102 @@
       <c r="E15" s="3">
         <v>3</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="111"/>
-      <c r="H15" s="109" t="s">
+      <c r="G15" s="116"/>
+      <c r="H15" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="I15" s="110"/>
-      <c r="J15" s="111"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="116"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" thickBot="1">
       <c r="B16" s="3"/>
       <c r="C16" s="104"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="111"/>
+      <c r="F16" s="114"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="116"/>
     </row>
     <row r="17" spans="2:10" ht="15.75" thickBot="1">
       <c r="B17" s="3"/>
       <c r="C17" s="104"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="110"/>
-      <c r="J17" s="111"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
     </row>
     <row r="18" spans="2:10" ht="15.75" thickBot="1">
       <c r="B18" s="3"/>
       <c r="C18" s="104"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111"/>
+      <c r="F18" s="114"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
     </row>
     <row r="19" spans="2:10" ht="15.75" thickBot="1">
       <c r="B19" s="3"/>
       <c r="C19" s="104"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
     <row r="20" spans="2:10" ht="15.75" thickBot="1">
       <c r="B20" s="3"/>
       <c r="C20" s="104"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
     </row>
     <row r="21" spans="2:10" ht="15.75" thickBot="1">
       <c r="B21" s="3"/>
       <c r="C21" s="104"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
     </row>
     <row r="22" spans="2:10" ht="15.75" thickBot="1">
       <c r="B22" s="3"/>
       <c r="C22" s="104"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F21:G21"/>
@@ -4905,13 +4906,12 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4922,8 +4922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4940,15 +4940,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="25" t="s">
@@ -5022,17 +5022,21 @@
       <c r="C12" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="105">
         <v>0.25</v>
       </c>
-      <c r="E12" s="134">
+      <c r="E12" s="106">
         <v>0.25</v>
       </c>
       <c r="F12" s="93">
         <v>40224</v>
       </c>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
+      <c r="G12" s="93">
+        <v>40224</v>
+      </c>
+      <c r="H12" s="106">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="32">
@@ -5041,17 +5045,21 @@
       <c r="C13" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="133">
+      <c r="D13" s="105">
         <v>0.25</v>
       </c>
-      <c r="E13" s="134">
+      <c r="E13" s="106">
         <v>0.5</v>
       </c>
       <c r="F13" s="93">
         <v>40224</v>
       </c>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="93">
+        <v>40224</v>
+      </c>
+      <c r="H13" s="106">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="32">
@@ -5060,17 +5068,21 @@
       <c r="C14" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="105">
         <v>2</v>
       </c>
-      <c r="E14" s="135">
+      <c r="E14" s="107">
         <v>2.5</v>
       </c>
       <c r="F14" s="93">
         <v>40224</v>
       </c>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="G14" s="93">
+        <v>40224</v>
+      </c>
+      <c r="H14" s="107">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="32">
@@ -5079,17 +5091,21 @@
       <c r="C15" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="133">
+      <c r="D15" s="105">
         <v>2</v>
       </c>
-      <c r="E15" s="134">
+      <c r="E15" s="106">
         <v>4.5</v>
       </c>
       <c r="F15" s="93">
         <v>40224</v>
       </c>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="G15" s="93">
+        <v>40224</v>
+      </c>
+      <c r="H15" s="106">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="32">
@@ -5098,17 +5114,21 @@
       <c r="C16" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="133">
+      <c r="D16" s="105">
         <v>2</v>
       </c>
-      <c r="E16" s="134">
+      <c r="E16" s="106">
         <v>6.5</v>
       </c>
       <c r="F16" s="93">
         <v>40224</v>
       </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="G16" s="93">
+        <v>40224</v>
+      </c>
+      <c r="H16" s="106">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="32">
@@ -5117,17 +5137,21 @@
       <c r="C17" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="105">
         <v>0.25</v>
       </c>
-      <c r="E17" s="134">
+      <c r="E17" s="106">
         <v>6.75</v>
       </c>
       <c r="F17" s="93">
         <v>40225</v>
       </c>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="G17" s="93">
+        <v>40225</v>
+      </c>
+      <c r="H17" s="106">
+        <v>6.75</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="32">
@@ -5136,17 +5160,21 @@
       <c r="C18" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="105">
         <v>0.25</v>
       </c>
-      <c r="E18" s="134">
+      <c r="E18" s="106">
         <v>7</v>
       </c>
       <c r="F18" s="93">
         <v>40225</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="G18" s="93">
+        <v>40225</v>
+      </c>
+      <c r="H18" s="106">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="32">
@@ -5155,17 +5183,21 @@
       <c r="C19" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D19" s="133">
+      <c r="D19" s="105">
         <v>2</v>
       </c>
-      <c r="E19" s="134">
+      <c r="E19" s="106">
         <v>7.5</v>
       </c>
       <c r="F19" s="93">
         <v>40225</v>
       </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="G19" s="93">
+        <v>40225</v>
+      </c>
+      <c r="H19" s="106">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="32">
@@ -5174,17 +5206,21 @@
       <c r="C20" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="105">
         <v>2</v>
       </c>
-      <c r="E20" s="134">
+      <c r="E20" s="106">
         <v>9.5</v>
       </c>
       <c r="F20" s="93">
         <v>40225</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="G20" s="93">
+        <v>40225</v>
+      </c>
+      <c r="H20" s="106">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="32">
@@ -5193,17 +5229,21 @@
       <c r="C21" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="133">
+      <c r="D21" s="105">
         <v>2</v>
       </c>
-      <c r="E21" s="134">
+      <c r="E21" s="106">
         <v>11.5</v>
       </c>
       <c r="F21" s="93">
         <v>40225</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
+      <c r="G21" s="93">
+        <v>40225</v>
+      </c>
+      <c r="H21" s="106">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="32">
@@ -5212,17 +5252,21 @@
       <c r="C22" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="133">
+      <c r="D22" s="105">
         <v>5</v>
       </c>
-      <c r="E22" s="134">
+      <c r="E22" s="106">
         <v>16.5</v>
       </c>
       <c r="F22" s="93">
         <v>40226</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="G22" s="93">
+        <v>40226</v>
+      </c>
+      <c r="H22" s="106">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="23" spans="2:8">
       <c r="B23" s="32">
@@ -5231,17 +5275,21 @@
       <c r="C23" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D23" s="133">
+      <c r="D23" s="105">
         <v>1</v>
       </c>
-      <c r="E23" s="134">
+      <c r="E23" s="106">
         <v>17.5</v>
       </c>
       <c r="F23" s="93">
         <v>40226</v>
       </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="G23" s="93">
+        <v>40226</v>
+      </c>
+      <c r="H23" s="106">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" s="32">
@@ -5250,17 +5298,21 @@
       <c r="C24" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="133">
+      <c r="D24" s="105">
         <v>0.25</v>
       </c>
-      <c r="E24" s="134">
+      <c r="E24" s="106">
         <v>17.75</v>
       </c>
       <c r="F24" s="93">
         <v>40227</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
+      <c r="G24" s="93">
+        <v>40227</v>
+      </c>
+      <c r="H24" s="106">
+        <v>17.75</v>
+      </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="32">
@@ -5269,17 +5321,21 @@
       <c r="C25" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="133">
+      <c r="D25" s="105">
         <v>0.25</v>
       </c>
-      <c r="E25" s="134">
+      <c r="E25" s="106">
         <v>18</v>
       </c>
       <c r="F25" s="93">
         <v>40227</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
+      <c r="G25" s="93">
+        <v>40227</v>
+      </c>
+      <c r="H25" s="106">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="2:8">
       <c r="B26" s="32">
@@ -5288,17 +5344,21 @@
       <c r="C26" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="133">
+      <c r="D26" s="105">
         <v>2</v>
       </c>
-      <c r="E26" s="134">
+      <c r="E26" s="106">
         <v>20</v>
       </c>
       <c r="F26" s="93">
         <v>40227</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="33"/>
+      <c r="G26" s="93">
+        <v>40227</v>
+      </c>
+      <c r="H26" s="106">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="2:8">
       <c r="B27" s="32">
@@ -5307,17 +5367,21 @@
       <c r="C27" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="D27" s="133">
+      <c r="D27" s="105">
         <v>2</v>
       </c>
-      <c r="E27" s="134">
+      <c r="E27" s="106">
         <v>22</v>
       </c>
       <c r="F27" s="93">
         <v>40227</v>
       </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
+      <c r="G27" s="93">
+        <v>40227</v>
+      </c>
+      <c r="H27" s="106">
+        <v>22</v>
+      </c>
     </row>
     <row r="28" spans="2:8">
       <c r="B28" s="32">
@@ -5326,17 +5390,21 @@
       <c r="C28" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D28" s="133">
+      <c r="D28" s="105">
         <v>1</v>
       </c>
-      <c r="E28" s="134">
+      <c r="E28" s="106">
         <v>23</v>
       </c>
       <c r="F28" s="93">
         <v>40227</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="G28" s="93">
+        <v>40227</v>
+      </c>
+      <c r="H28" s="106">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="32">
@@ -5345,17 +5413,21 @@
       <c r="C29" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="133">
+      <c r="D29" s="105">
         <v>0.25</v>
       </c>
-      <c r="E29" s="134">
+      <c r="E29" s="106">
         <v>23.25</v>
       </c>
       <c r="F29" s="93">
         <v>40228</v>
       </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
+      <c r="G29" s="93">
+        <v>40228</v>
+      </c>
+      <c r="H29" s="106">
+        <v>23.25</v>
+      </c>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="32">
@@ -5364,17 +5436,21 @@
       <c r="C30" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="133">
+      <c r="D30" s="105">
         <v>0.25</v>
       </c>
-      <c r="E30" s="134">
+      <c r="E30" s="106">
         <v>23.5</v>
       </c>
       <c r="F30" s="93">
         <v>40228</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
+      <c r="G30" s="93">
+        <v>40228</v>
+      </c>
+      <c r="H30" s="106">
+        <v>23.5</v>
+      </c>
     </row>
     <row r="31" spans="2:8">
       <c r="B31" s="32">
@@ -5383,17 +5459,21 @@
       <c r="C31" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="D31" s="133">
+      <c r="D31" s="105">
         <v>2</v>
       </c>
-      <c r="E31" s="134">
+      <c r="E31" s="106">
         <v>25.5</v>
       </c>
       <c r="F31" s="93">
         <v>40228</v>
       </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
+      <c r="G31" s="93">
+        <v>40228</v>
+      </c>
+      <c r="H31" s="106">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="32" spans="2:8">
       <c r="B32" s="32">
@@ -5402,17 +5482,21 @@
       <c r="C32" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="133">
+      <c r="D32" s="105">
         <v>2</v>
       </c>
-      <c r="E32" s="134">
+      <c r="E32" s="106">
         <v>27.5</v>
       </c>
       <c r="F32" s="93">
         <v>40228</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
+      <c r="G32" s="93">
+        <v>40228</v>
+      </c>
+      <c r="H32" s="106">
+        <v>27.5</v>
+      </c>
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="32">
@@ -5421,17 +5505,21 @@
       <c r="C33" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="133">
+      <c r="D33" s="105">
         <v>1</v>
       </c>
-      <c r="E33" s="134">
+      <c r="E33" s="106">
         <v>28.5</v>
       </c>
       <c r="F33" s="93">
         <v>40228</v>
       </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
+      <c r="G33" s="93">
+        <v>40228</v>
+      </c>
+      <c r="H33" s="106">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="34" spans="2:8">
       <c r="B34" s="32">
@@ -5440,17 +5528,21 @@
       <c r="C34" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="133">
+      <c r="D34" s="105">
         <v>4</v>
       </c>
-      <c r="E34" s="134">
+      <c r="E34" s="106">
         <v>32.5</v>
       </c>
       <c r="F34" s="93">
         <v>40228</v>
       </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
+      <c r="G34" s="93">
+        <v>40228</v>
+      </c>
+      <c r="H34" s="106">
+        <v>32.5</v>
+      </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="32">
@@ -5459,17 +5551,21 @@
       <c r="C35" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="133">
+      <c r="D35" s="105">
         <v>0.5</v>
       </c>
-      <c r="E35" s="134">
+      <c r="E35" s="106">
         <v>33</v>
       </c>
       <c r="F35" s="93">
         <v>40229</v>
       </c>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
+      <c r="G35" s="93">
+        <v>40229</v>
+      </c>
+      <c r="H35" s="106">
+        <v>33</v>
+      </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="32">
@@ -5478,17 +5574,21 @@
       <c r="C36" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="133">
+      <c r="D36" s="105">
         <v>1</v>
       </c>
-      <c r="E36" s="134">
+      <c r="E36" s="106">
         <v>34</v>
       </c>
       <c r="F36" s="93">
         <v>40229</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="G36" s="93">
+        <v>40229</v>
+      </c>
+      <c r="H36" s="106">
+        <v>34</v>
+      </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="32">
@@ -5497,17 +5597,21 @@
       <c r="C37" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D37" s="133">
+      <c r="D37" s="105">
         <v>3</v>
       </c>
-      <c r="E37" s="134">
+      <c r="E37" s="106">
         <v>37</v>
       </c>
       <c r="F37" s="93">
         <v>40229</v>
       </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
+      <c r="G37" s="93">
+        <v>40229</v>
+      </c>
+      <c r="H37" s="106">
+        <v>37</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="13.5" thickBot="1">
       <c r="B38" s="30">
@@ -5516,17 +5620,21 @@
       <c r="C38" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="136">
+      <c r="D38" s="108">
         <v>2</v>
       </c>
-      <c r="E38" s="137">
+      <c r="E38" s="109">
         <v>39</v>
       </c>
       <c r="F38" s="94">
         <v>40229</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31"/>
+      <c r="G38" s="94">
+        <v>40229</v>
+      </c>
+      <c r="H38" s="109">
+        <v>39</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="13.5" thickBot="1">
       <c r="B39" s="87"/>
@@ -5774,28 +5882,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="15.75">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
       <c r="G6" t="s">
         <v>2</v>
       </c>
@@ -5808,9 +5916,9 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
       <c r="G7" t="s">
         <v>14</v>
       </c>
@@ -6042,13 +6150,13 @@
       <c r="C27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="132"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="134"/>
       <c r="I27" s="81"/>
       <c r="J27" s="81"/>
       <c r="K27" s="81"/>
@@ -6059,13 +6167,13 @@
       <c r="C28" s="80">
         <v>10</v>
       </c>
-      <c r="D28" s="127" t="s">
+      <c r="D28" s="135" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="129"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="137"/>
       <c r="I28" s="82"/>
       <c r="J28" s="82"/>
       <c r="K28" s="82"/>
@@ -6078,13 +6186,13 @@
       <c r="C29" s="80">
         <v>20</v>
       </c>
-      <c r="D29" s="127" t="s">
+      <c r="D29" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="129"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
       <c r="I29" s="82"/>
       <c r="J29" s="82"/>
       <c r="K29" s="82"/>
@@ -6097,13 +6205,13 @@
       <c r="C30" s="80">
         <v>30</v>
       </c>
-      <c r="D30" s="127" t="s">
+      <c r="D30" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="129"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="137"/>
       <c r="I30" s="82"/>
       <c r="J30" s="82"/>
       <c r="K30" s="82"/>
@@ -6116,13 +6224,13 @@
       <c r="C31" s="80">
         <v>40</v>
       </c>
-      <c r="D31" s="127" t="s">
+      <c r="D31" s="135" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="129"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="137"/>
       <c r="I31" s="82"/>
       <c r="J31" s="82"/>
       <c r="K31" s="82"/>
@@ -6135,13 +6243,13 @@
       <c r="C32" s="80">
         <v>50</v>
       </c>
-      <c r="D32" s="127" t="s">
+      <c r="D32" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="129"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="137"/>
       <c r="I32" s="82"/>
       <c r="J32" s="82"/>
       <c r="K32" s="82"/>
@@ -6154,13 +6262,13 @@
       <c r="C33" s="80">
         <v>60</v>
       </c>
-      <c r="D33" s="127" t="s">
+      <c r="D33" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="129"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="137"/>
       <c r="I33" s="82"/>
       <c r="J33" s="82"/>
       <c r="K33" s="82"/>
@@ -6171,13 +6279,13 @@
       <c r="C34" s="80">
         <v>70</v>
       </c>
-      <c r="D34" s="127" t="s">
+      <c r="D34" s="135" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="129"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
+      <c r="H34" s="137"/>
       <c r="I34" s="82"/>
       <c r="J34" s="82"/>
       <c r="K34" s="82"/>
@@ -6188,13 +6296,13 @@
       <c r="C35" s="80">
         <v>80</v>
       </c>
-      <c r="D35" s="127" t="s">
+      <c r="D35" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="129"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
+      <c r="H35" s="137"/>
       <c r="I35" s="82"/>
       <c r="J35" s="82"/>
       <c r="K35" s="82"/>
@@ -6205,13 +6313,13 @@
       <c r="C36" s="80">
         <v>90</v>
       </c>
-      <c r="D36" s="127" t="s">
+      <c r="D36" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="129"/>
+      <c r="E36" s="136"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="136"/>
+      <c r="H36" s="137"/>
       <c r="I36" s="82"/>
       <c r="J36" s="82"/>
       <c r="K36" s="82"/>
@@ -6222,13 +6330,13 @@
       <c r="C37" s="80">
         <v>100</v>
       </c>
-      <c r="D37" s="127" t="s">
+      <c r="D37" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="129"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="137"/>
       <c r="I37" s="82"/>
       <c r="J37" s="82"/>
       <c r="K37" s="82"/>
@@ -6236,11 +6344,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D28:H28"/>
     <mergeCell ref="D34:H34"/>
     <mergeCell ref="D35:H35"/>
     <mergeCell ref="D36:H36"/>
@@ -6250,6 +6353,11 @@
     <mergeCell ref="D31:H31"/>
     <mergeCell ref="D32:H32"/>
     <mergeCell ref="D33:H33"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/Docs/PDSP_Documents - PJ.xlsx
+++ b/trunk/Docs/PDSP_Documents - PJ.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="126">
   <si>
     <t>SCHEDULE PLANNING TEMPLATE</t>
   </si>
@@ -538,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1099,13 +1099,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1409,6 +1418,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4920,10 +4944,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:H59"/>
+  <dimension ref="B3:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4931,15 +4955,17 @@
     <col min="1" max="1" width="9.140625" style="25"/>
     <col min="2" max="2" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="25"/>
-    <col min="8" max="8" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="25"/>
+    <col min="6" max="6" width="9.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="25"/>
+    <col min="12" max="12" width="29.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="15.75">
+    <row r="3" spans="2:12" ht="15.75">
       <c r="B3" s="131" t="s">
         <v>86</v>
       </c>
@@ -4950,7 +4976,7 @@
       <c r="G3" s="131"/>
       <c r="H3" s="131"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:12">
       <c r="B6" s="25" t="s">
         <v>1</v>
       </c>
@@ -4964,7 +4990,7 @@
         <v>40228</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:12">
       <c r="B7" s="25" t="s">
         <v>3</v>
       </c>
@@ -4976,8 +5002,8 @@
       </c>
       <c r="F7" s="26"/>
     </row>
-    <row r="9" spans="2:8" ht="13.5" thickBot="1"/>
-    <row r="10" spans="2:8">
+    <row r="9" spans="2:12" ht="13.5" thickBot="1"/>
+    <row r="10" spans="2:12" ht="15" customHeight="1">
       <c r="B10" s="27" t="s">
         <v>61</v>
       </c>
@@ -4987,12 +5013,13 @@
       </c>
       <c r="E10" s="29"/>
       <c r="F10" s="91"/>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="28"/>
-    </row>
-    <row r="11" spans="2:8">
+      <c r="H10" s="144"/>
+      <c r="I10" s="145"/>
+    </row>
+    <row r="11" spans="2:12" ht="13.5" thickBot="1">
       <c r="B11" s="84" t="s">
         <v>20</v>
       </c>
@@ -5008,14 +5035,17 @@
       <c r="F11" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="I11" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:12" ht="13.5" thickBot="1">
       <c r="B12" s="32">
         <v>1</v>
       </c>
@@ -5031,14 +5061,23 @@
       <c r="F12" s="93">
         <v>40224</v>
       </c>
-      <c r="G12" s="93">
+      <c r="G12" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="93">
         <v>40224</v>
       </c>
-      <c r="H12" s="106">
+      <c r="I12" s="140">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="2:8">
+      <c r="K12" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="L12" s="98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12">
       <c r="B13" s="32">
         <v>2</v>
       </c>
@@ -5054,14 +5093,23 @@
       <c r="F13" s="93">
         <v>40224</v>
       </c>
-      <c r="G13" s="93">
+      <c r="G13" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="93">
         <v>40224</v>
       </c>
-      <c r="H13" s="106">
+      <c r="I13" s="140">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="K13" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12">
       <c r="B14" s="32">
         <v>3</v>
       </c>
@@ -5077,14 +5125,23 @@
       <c r="F14" s="93">
         <v>40224</v>
       </c>
-      <c r="G14" s="93">
+      <c r="G14" s="139">
+        <v>2</v>
+      </c>
+      <c r="H14" s="93">
         <v>40224</v>
       </c>
-      <c r="H14" s="107">
+      <c r="I14" s="141">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="15" spans="2:8">
+      <c r="K14" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="32">
         <v>4</v>
       </c>
@@ -5100,14 +5157,23 @@
       <c r="F15" s="93">
         <v>40224</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="139">
+        <v>2</v>
+      </c>
+      <c r="H15" s="93">
         <v>40224</v>
       </c>
-      <c r="H15" s="106">
+      <c r="I15" s="140">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:8">
+      <c r="K15" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
       <c r="B16" s="32">
         <v>5</v>
       </c>
@@ -5123,14 +5189,23 @@
       <c r="F16" s="93">
         <v>40224</v>
       </c>
-      <c r="G16" s="93">
+      <c r="G16" s="139">
+        <v>2</v>
+      </c>
+      <c r="H16" s="93">
         <v>40224</v>
       </c>
-      <c r="H16" s="106">
+      <c r="I16" s="140">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="17" spans="2:8">
+      <c r="K16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="B17" s="32">
         <v>6</v>
       </c>
@@ -5146,14 +5221,23 @@
       <c r="F17" s="93">
         <v>40225</v>
       </c>
-      <c r="G17" s="93">
+      <c r="G17" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="93">
         <v>40225</v>
       </c>
-      <c r="H17" s="106">
+      <c r="I17" s="140">
         <v>6.75</v>
       </c>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="K17" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" ht="13.5" thickBot="1">
       <c r="B18" s="32">
         <v>7</v>
       </c>
@@ -5169,14 +5253,23 @@
       <c r="F18" s="93">
         <v>40225</v>
       </c>
-      <c r="G18" s="93">
+      <c r="G18" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H18" s="93">
         <v>40225</v>
       </c>
-      <c r="H18" s="106">
+      <c r="I18" s="140">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="2:8">
+      <c r="K18" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="32">
         <v>8</v>
       </c>
@@ -5192,14 +5285,17 @@
       <c r="F19" s="93">
         <v>40225</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="139">
+        <v>2</v>
+      </c>
+      <c r="H19" s="93">
         <v>40225</v>
       </c>
-      <c r="H19" s="106">
+      <c r="I19" s="140">
         <v>7.5</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:12">
       <c r="B20" s="32">
         <v>9</v>
       </c>
@@ -5215,14 +5311,17 @@
       <c r="F20" s="93">
         <v>40225</v>
       </c>
-      <c r="G20" s="93">
+      <c r="G20" s="139">
+        <v>2</v>
+      </c>
+      <c r="H20" s="93">
         <v>40225</v>
       </c>
-      <c r="H20" s="106">
+      <c r="I20" s="140">
         <v>9.5</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:12">
       <c r="B21" s="32">
         <v>10</v>
       </c>
@@ -5238,14 +5337,17 @@
       <c r="F21" s="93">
         <v>40225</v>
       </c>
-      <c r="G21" s="93">
+      <c r="G21" s="139">
+        <v>2</v>
+      </c>
+      <c r="H21" s="93">
         <v>40225</v>
       </c>
-      <c r="H21" s="106">
+      <c r="I21" s="140">
         <v>11.5</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:12">
       <c r="B22" s="32">
         <v>11</v>
       </c>
@@ -5261,14 +5363,17 @@
       <c r="F22" s="93">
         <v>40226</v>
       </c>
-      <c r="G22" s="93">
+      <c r="G22" s="139">
+        <v>5</v>
+      </c>
+      <c r="H22" s="93">
         <v>40226</v>
       </c>
-      <c r="H22" s="106">
+      <c r="I22" s="140">
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:12">
       <c r="B23" s="32">
         <v>12</v>
       </c>
@@ -5284,14 +5389,17 @@
       <c r="F23" s="93">
         <v>40226</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="139">
+        <v>1</v>
+      </c>
+      <c r="H23" s="93">
         <v>40226</v>
       </c>
-      <c r="H23" s="106">
+      <c r="I23" s="140">
         <v>17.5</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:12">
       <c r="B24" s="32">
         <v>13</v>
       </c>
@@ -5307,14 +5415,17 @@
       <c r="F24" s="93">
         <v>40227</v>
       </c>
-      <c r="G24" s="93">
+      <c r="G24" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H24" s="93">
         <v>40227</v>
       </c>
-      <c r="H24" s="106">
+      <c r="I24" s="140">
         <v>17.75</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:12">
       <c r="B25" s="32">
         <v>14</v>
       </c>
@@ -5330,14 +5441,17 @@
       <c r="F25" s="93">
         <v>40227</v>
       </c>
-      <c r="G25" s="93">
+      <c r="G25" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="93">
         <v>40227</v>
       </c>
-      <c r="H25" s="106">
+      <c r="I25" s="140">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:12">
       <c r="B26" s="32">
         <v>15</v>
       </c>
@@ -5353,14 +5467,17 @@
       <c r="F26" s="93">
         <v>40227</v>
       </c>
-      <c r="G26" s="93">
+      <c r="G26" s="139">
+        <v>2</v>
+      </c>
+      <c r="H26" s="93">
         <v>40227</v>
       </c>
-      <c r="H26" s="106">
+      <c r="I26" s="140">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:12">
       <c r="B27" s="32">
         <v>16</v>
       </c>
@@ -5376,14 +5493,17 @@
       <c r="F27" s="93">
         <v>40227</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="139">
+        <v>2</v>
+      </c>
+      <c r="H27" s="93">
         <v>40227</v>
       </c>
-      <c r="H27" s="106">
+      <c r="I27" s="140">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:12">
       <c r="B28" s="32">
         <v>17</v>
       </c>
@@ -5399,14 +5519,17 @@
       <c r="F28" s="93">
         <v>40227</v>
       </c>
-      <c r="G28" s="93">
+      <c r="G28" s="139">
+        <v>1</v>
+      </c>
+      <c r="H28" s="93">
         <v>40227</v>
       </c>
-      <c r="H28" s="106">
+      <c r="I28" s="140">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:12">
       <c r="B29" s="32">
         <v>18</v>
       </c>
@@ -5422,14 +5545,17 @@
       <c r="F29" s="93">
         <v>40228</v>
       </c>
-      <c r="G29" s="93">
+      <c r="G29" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="93">
         <v>40228</v>
       </c>
-      <c r="H29" s="106">
+      <c r="I29" s="140">
         <v>23.25</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:12">
       <c r="B30" s="32">
         <v>19</v>
       </c>
@@ -5445,14 +5571,17 @@
       <c r="F30" s="93">
         <v>40228</v>
       </c>
-      <c r="G30" s="93">
+      <c r="G30" s="139">
+        <v>0.25</v>
+      </c>
+      <c r="H30" s="93">
         <v>40228</v>
       </c>
-      <c r="H30" s="106">
+      <c r="I30" s="140">
         <v>23.5</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:12">
       <c r="B31" s="32">
         <v>20</v>
       </c>
@@ -5468,14 +5597,17 @@
       <c r="F31" s="93">
         <v>40228</v>
       </c>
-      <c r="G31" s="93">
+      <c r="G31" s="139">
+        <v>2</v>
+      </c>
+      <c r="H31" s="93">
         <v>40228</v>
       </c>
-      <c r="H31" s="106">
+      <c r="I31" s="140">
         <v>25.5</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:12">
       <c r="B32" s="32">
         <v>21</v>
       </c>
@@ -5491,14 +5623,17 @@
       <c r="F32" s="93">
         <v>40228</v>
       </c>
-      <c r="G32" s="93">
+      <c r="G32" s="139">
+        <v>2</v>
+      </c>
+      <c r="H32" s="93">
         <v>40228</v>
       </c>
-      <c r="H32" s="106">
+      <c r="I32" s="140">
         <v>27.5</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:9">
       <c r="B33" s="32">
         <v>22</v>
       </c>
@@ -5514,14 +5649,17 @@
       <c r="F33" s="93">
         <v>40228</v>
       </c>
-      <c r="G33" s="93">
+      <c r="G33" s="139">
+        <v>1</v>
+      </c>
+      <c r="H33" s="93">
         <v>40228</v>
       </c>
-      <c r="H33" s="106">
+      <c r="I33" s="140">
         <v>28.5</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:9">
       <c r="B34" s="32">
         <v>23</v>
       </c>
@@ -5537,14 +5675,17 @@
       <c r="F34" s="93">
         <v>40228</v>
       </c>
-      <c r="G34" s="93">
+      <c r="G34" s="139">
+        <v>4</v>
+      </c>
+      <c r="H34" s="93">
         <v>40228</v>
       </c>
-      <c r="H34" s="106">
+      <c r="I34" s="140">
         <v>32.5</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:9">
       <c r="B35" s="32">
         <v>24</v>
       </c>
@@ -5560,14 +5701,17 @@
       <c r="F35" s="93">
         <v>40229</v>
       </c>
-      <c r="G35" s="93">
+      <c r="G35" s="139">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="93">
         <v>40229</v>
       </c>
-      <c r="H35" s="106">
+      <c r="I35" s="140">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:9">
       <c r="B36" s="32">
         <v>25</v>
       </c>
@@ -5583,14 +5727,17 @@
       <c r="F36" s="93">
         <v>40229</v>
       </c>
-      <c r="G36" s="93">
+      <c r="G36" s="139">
+        <v>1</v>
+      </c>
+      <c r="H36" s="93">
         <v>40229</v>
       </c>
-      <c r="H36" s="106">
+      <c r="I36" s="140">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:9">
       <c r="B37" s="32">
         <v>26</v>
       </c>
@@ -5606,14 +5753,17 @@
       <c r="F37" s="93">
         <v>40229</v>
       </c>
-      <c r="G37" s="93">
+      <c r="G37" s="139">
+        <v>3</v>
+      </c>
+      <c r="H37" s="93">
         <v>40229</v>
       </c>
-      <c r="H37" s="106">
+      <c r="I37" s="140">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="13.5" thickBot="1">
+    <row r="38" spans="2:9" ht="13.5" thickBot="1">
       <c r="B38" s="30">
         <v>27</v>
       </c>
@@ -5629,14 +5779,17 @@
       <c r="F38" s="94">
         <v>40229</v>
       </c>
-      <c r="G38" s="94">
+      <c r="G38" s="142">
+        <v>2</v>
+      </c>
+      <c r="H38" s="94">
         <v>40229</v>
       </c>
-      <c r="H38" s="109">
+      <c r="I38" s="143">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="13.5" thickBot="1">
+    <row r="39" spans="2:9">
       <c r="B39" s="87"/>
       <c r="C39" s="87"/>
       <c r="D39" s="87"/>
@@ -5645,98 +5798,56 @@
       <c r="G39" s="87"/>
       <c r="H39" s="87"/>
     </row>
-    <row r="40" spans="2:8" ht="13.5" thickBot="1">
+    <row r="40" spans="2:9">
       <c r="B40" s="87"/>
-      <c r="C40" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="98" t="s">
-        <v>104</v>
-      </c>
       <c r="E40" s="87"/>
       <c r="F40" s="87"/>
       <c r="G40" s="87"/>
       <c r="H40" s="87"/>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:9">
       <c r="B41" s="87"/>
-      <c r="C41" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="96" t="s">
-        <v>106</v>
-      </c>
       <c r="E41" s="87"/>
       <c r="F41" s="87"/>
       <c r="G41" s="87"/>
       <c r="H41" s="87"/>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:9">
       <c r="B42" s="87"/>
-      <c r="C42" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" s="87"/>
       <c r="F42" s="87"/>
       <c r="G42" s="87"/>
       <c r="H42" s="87"/>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:9">
       <c r="B43" s="87"/>
-      <c r="C43" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>112</v>
-      </c>
       <c r="E43" s="87"/>
       <c r="F43" s="87"/>
       <c r="G43" s="87"/>
       <c r="H43" s="87"/>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:9">
       <c r="B44" s="87"/>
-      <c r="C44" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>110</v>
-      </c>
       <c r="E44" s="87"/>
       <c r="F44" s="87"/>
       <c r="G44" s="87"/>
       <c r="H44" s="87"/>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:9">
       <c r="B45" s="87"/>
-      <c r="C45" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>114</v>
-      </c>
       <c r="E45" s="87"/>
       <c r="F45" s="87"/>
       <c r="G45" s="87"/>
       <c r="H45" s="87"/>
     </row>
-    <row r="46" spans="2:8" ht="13.5" thickBot="1">
+    <row r="46" spans="2:9">
       <c r="B46" s="87"/>
-      <c r="C46" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>116</v>
-      </c>
       <c r="E46" s="87"/>
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="87"/>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:9">
       <c r="B47" s="87"/>
       <c r="C47" s="88"/>
       <c r="D47" s="88"/>
@@ -5745,7 +5856,7 @@
       <c r="G47" s="87"/>
       <c r="H47" s="87"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:9">
       <c r="B48" s="87"/>
       <c r="C48" s="88"/>
       <c r="D48" s="88"/>
@@ -5854,8 +5965,9 @@
       <c r="H59" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:H3"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
